--- a/src/test/resources/Run_Manager_Register_Interest.xlsx
+++ b/src/test/resources/Run_Manager_Register_Interest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\SaknaiNewEnv\SAKANI_TST_NEW\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI_TST_R1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{581D922A-EE94-4EA7-AD1A-EC4A6875862B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707AD6B-DCCB-4C0D-924C-C1086F9449B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="961" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="355">
   <si>
     <t>P_Key</t>
   </si>
@@ -878,6 +878,9 @@
     <t>ValidEMail</t>
   </si>
   <si>
+    <t>amged.hassan@gmail.com</t>
+  </si>
+  <si>
     <t>As a logged in user Check the validation message content while Entering an invalid Email format in the "Register your interest" Field</t>
   </si>
   <si>
@@ -1064,9 +1067,21 @@
     <t>Admin access project and turn off booking</t>
   </si>
   <si>
+    <t>test@gmail</t>
+  </si>
+  <si>
     <t>test test @ gmail.com</t>
   </si>
   <si>
+    <t>test#$@$%@gmail.com</t>
+  </si>
+  <si>
+    <t>1041380906</t>
+  </si>
+  <si>
+    <t>Aa123456@</t>
+  </si>
+  <si>
     <t>https://test-admin-sakani.housingapps.sa</t>
   </si>
   <si>
@@ -1077,31 +1092,13 @@
   </si>
   <si>
     <t>Garden City Towers - me changed</t>
-  </si>
-  <si>
-    <t>test #$@$% @ gmail.com</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>Aa@123456</t>
-  </si>
-  <si>
-    <t>amged@gmail.com</t>
-  </si>
-  <si>
-    <t>Test Private Offplan 11June PQ</t>
-  </si>
-  <si>
-    <t>testFile1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1180,6 +1177,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF06222B"/>
+      <name val="IMBPlexSansArabic"/>
     </font>
     <font>
       <b/>
@@ -1402,7 +1405,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1483,24 +1486,28 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1510,6 +1517,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1637,9 +1648,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1677,7 +1688,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1783,7 +1794,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1925,7 +1936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1933,17 +1944,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="F29" sqref="F29"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.88671875" style="2" bestFit="1" customWidth="1"/>
@@ -1961,7 +1972,7 @@
     <col min="14" max="16384" width="11.5546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="3" customFormat="1" ht="30" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -2002,12 +2013,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="30" customHeight="1">
       <c r="A2" s="36" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -2031,1058 +2042,1019 @@
       <c r="L2" s="43"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="44">
-        <v>1</v>
-      </c>
-      <c r="B3" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C3" s="45" t="s">
+    <row r="3" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A3" s="48">
+        <v>1</v>
+      </c>
+      <c r="B3" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C3" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="49" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="E3" s="49" t="s">
         <v>250</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="G3" s="45" t="s">
+      <c r="G3" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="35">
-        <v>1</v>
-      </c>
-      <c r="L3" s="47">
-        <v>1</v>
-      </c>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44">
+      <c r="J3" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="50">
+        <v>1</v>
+      </c>
+      <c r="L3" s="52">
+        <v>1</v>
+      </c>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A4" s="48">
         <v>2</v>
       </c>
-      <c r="B4" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C4" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="49" t="s">
         <v>255</v>
       </c>
-      <c r="E4" s="45" t="s">
+      <c r="E4" s="49" t="s">
         <v>256</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="G4" s="45" t="s">
+      <c r="G4" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="35">
-        <v>1</v>
-      </c>
-      <c r="L4" s="47">
-        <v>2</v>
-      </c>
-      <c r="M4" s="35"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="44">
+      <c r="J4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="50">
+        <v>1</v>
+      </c>
+      <c r="L4" s="52">
+        <v>1</v>
+      </c>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A5" s="48">
         <v>3</v>
       </c>
-      <c r="B5" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C5" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="49" t="s">
         <v>258</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="49" t="s">
         <v>259</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="35">
-        <v>1</v>
-      </c>
-      <c r="L5" s="47">
-        <v>3</v>
-      </c>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44">
+      <c r="J5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="50">
+        <v>1</v>
+      </c>
+      <c r="L5" s="52">
+        <v>1</v>
+      </c>
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A6" s="48">
         <v>4</v>
       </c>
-      <c r="B6" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C6" s="45" t="s">
+      <c r="B6" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C6" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="D6" s="45" t="s">
+      <c r="D6" s="49" t="s">
         <v>260</v>
       </c>
-      <c r="E6" s="45" t="s">
+      <c r="E6" s="49" t="s">
         <v>261</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="35">
-        <v>1</v>
-      </c>
-      <c r="L6" s="47">
-        <v>4</v>
-      </c>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44">
+      <c r="J6" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="50">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52">
+        <v>1</v>
+      </c>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A7" s="48">
         <v>5</v>
       </c>
-      <c r="B7" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="D7" s="45" t="s">
+      <c r="D7" s="49" t="s">
         <v>262</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="49" t="s">
         <v>263</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="45" t="s">
+      <c r="G7" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="35">
-        <v>1</v>
-      </c>
-      <c r="L7" s="47">
-        <v>5</v>
-      </c>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44">
+      <c r="J7" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="50">
+        <v>1</v>
+      </c>
+      <c r="L7" s="52">
+        <v>1</v>
+      </c>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A8" s="48">
         <v>6</v>
       </c>
-      <c r="B8" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C8" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="D8" s="45" t="s">
+      <c r="D8" s="49" t="s">
         <v>265</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="49" t="s">
         <v>264</v>
       </c>
-      <c r="F8" s="45" t="s">
+      <c r="F8" s="49" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="45" t="s">
+      <c r="G8" s="49" t="s">
+        <v>301</v>
+      </c>
+      <c r="H8" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I8" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J8" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="50">
+        <v>1</v>
+      </c>
+      <c r="L8" s="52">
+        <v>1</v>
+      </c>
+      <c r="M8" s="50"/>
+    </row>
+    <row r="9" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A9" s="48">
+        <v>7</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="49" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>268</v>
+      </c>
+      <c r="F9" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="G9" s="49" t="s">
+        <v>302</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J9" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="50">
+        <v>1</v>
+      </c>
+      <c r="L9" s="52">
+        <v>1</v>
+      </c>
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A10" s="48">
+        <v>8</v>
+      </c>
+      <c r="B10" s="49" t="s">
+        <v>345</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" s="49" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>271</v>
+      </c>
+      <c r="F10" s="49" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="49" t="s">
+        <v>303</v>
+      </c>
+      <c r="H10" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J10" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="50">
+        <v>1</v>
+      </c>
+      <c r="L10" s="52">
+        <v>1</v>
+      </c>
+      <c r="M10" s="50"/>
+    </row>
+    <row r="11" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A11" s="48">
+        <v>9</v>
+      </c>
+      <c r="B11" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="49" t="s">
+        <v>272</v>
+      </c>
+      <c r="E11" s="49" t="s">
+        <v>274</v>
+      </c>
+      <c r="F11" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G11" s="49" t="s">
+        <v>314</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I11" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J11" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="50">
+        <v>1</v>
+      </c>
+      <c r="L11" s="52">
+        <v>1</v>
+      </c>
+      <c r="M11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A12" s="48">
+        <v>10</v>
+      </c>
+      <c r="B12" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="D12" s="49" t="s">
+        <v>286</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>287</v>
+      </c>
+      <c r="F12" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G12" s="49" t="s">
+        <v>322</v>
+      </c>
+      <c r="H12" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I12" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J12" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="50">
+        <v>1</v>
+      </c>
+      <c r="L12" s="52">
+        <v>1</v>
+      </c>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="13" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A13" s="48">
+        <v>11</v>
+      </c>
+      <c r="B13" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="49" t="s">
+        <v>279</v>
+      </c>
+      <c r="E13" s="49" t="s">
+        <v>280</v>
+      </c>
+      <c r="F13" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="49" t="s">
+        <v>323</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I13" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="50">
+        <v>1</v>
+      </c>
+      <c r="L13" s="52">
+        <v>1</v>
+      </c>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A14" s="48">
+        <v>12</v>
+      </c>
+      <c r="B14" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="E14" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G14" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I14" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J14" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="50">
+        <v>1</v>
+      </c>
+      <c r="L14" s="52">
+        <v>1</v>
+      </c>
+      <c r="M14" s="50"/>
+    </row>
+    <row r="15" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A15" s="48">
+        <v>13</v>
+      </c>
+      <c r="B15" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="49" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="F15" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>325</v>
+      </c>
+      <c r="H15" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I15" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="50">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52">
+        <v>1</v>
+      </c>
+      <c r="M15" s="50"/>
+    </row>
+    <row r="16" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A16" s="48">
+        <v>14</v>
+      </c>
+      <c r="B16" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="E16" s="49" t="s">
+        <v>293</v>
+      </c>
+      <c r="F16" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G16" s="49" t="s">
+        <v>330</v>
+      </c>
+      <c r="H16" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I16" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="50">
+        <v>1</v>
+      </c>
+      <c r="L16" s="52">
+        <v>1</v>
+      </c>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A17" s="48">
+        <v>15</v>
+      </c>
+      <c r="B17" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>331</v>
+      </c>
+      <c r="H17" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I17" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="50">
+        <v>1</v>
+      </c>
+      <c r="L17" s="52">
+        <v>1</v>
+      </c>
+      <c r="M17" s="50"/>
+    </row>
+    <row r="18" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A18" s="48">
+        <v>16</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18" s="49" t="s">
+        <v>304</v>
+      </c>
+      <c r="F18" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G18" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I18" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="50">
+        <v>1</v>
+      </c>
+      <c r="L18" s="52">
+        <v>1</v>
+      </c>
+      <c r="M18" s="50"/>
+    </row>
+    <row r="19" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A19" s="48">
+        <v>17</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="D19" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="E19" s="49" t="s">
+        <v>305</v>
+      </c>
+      <c r="F19" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G19" s="49" t="s">
+        <v>333</v>
+      </c>
+      <c r="H19" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I19" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J19" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="50">
+        <v>1</v>
+      </c>
+      <c r="L19" s="52">
+        <v>1</v>
+      </c>
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="48">
+        <v>18</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C20" s="49" t="s">
         <v>300</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="D20" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="E20" s="49" t="s">
+        <v>306</v>
+      </c>
+      <c r="F20" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G20" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="H20" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I20" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="35">
-        <v>1</v>
-      </c>
-      <c r="L8" s="47">
-        <v>6</v>
-      </c>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44">
-        <v>7</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="D9" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="E9" s="45" t="s">
-        <v>268</v>
-      </c>
-      <c r="F9" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>301</v>
-      </c>
-      <c r="H9" s="35" t="s">
+      <c r="J20" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="50">
+        <v>1</v>
+      </c>
+      <c r="L20" s="52">
+        <v>1</v>
+      </c>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A21" s="48">
+        <v>19</v>
+      </c>
+      <c r="B21" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="D21" s="49" t="s">
+        <v>307</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="F21" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="H21" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I21" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="35">
-        <v>1</v>
-      </c>
-      <c r="L9" s="47">
-        <v>7</v>
-      </c>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="44">
-        <v>8</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" s="45" t="s">
-        <v>269</v>
-      </c>
-      <c r="E10" s="45" t="s">
-        <v>271</v>
-      </c>
-      <c r="F10" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>302</v>
-      </c>
-      <c r="H10" s="35" t="s">
+      <c r="J21" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="50">
+        <v>1</v>
+      </c>
+      <c r="L21" s="52">
+        <v>1</v>
+      </c>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A22" s="48">
+        <v>20</v>
+      </c>
+      <c r="B22" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="D22" s="49" t="s">
+        <v>309</v>
+      </c>
+      <c r="E22" s="49" t="s">
+        <v>315</v>
+      </c>
+      <c r="F22" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G22" s="49" t="s">
+        <v>336</v>
+      </c>
+      <c r="H22" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I22" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="35">
-        <v>1</v>
-      </c>
-      <c r="L10" s="47">
-        <v>8</v>
-      </c>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44">
-        <v>9</v>
-      </c>
-      <c r="B11" s="45" t="s">
+      <c r="J22" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="50">
+        <v>1</v>
+      </c>
+      <c r="L22" s="52">
+        <v>1</v>
+      </c>
+      <c r="M22" s="50"/>
+    </row>
+    <row r="23" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A23" s="48">
+        <v>21</v>
+      </c>
+      <c r="B23" s="49" t="s">
         <v>277</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="D11" s="45" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="45" t="s">
-        <v>274</v>
-      </c>
-      <c r="F11" s="45" t="s">
+      <c r="C23" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="D23" s="49" t="s">
+        <v>310</v>
+      </c>
+      <c r="E23" s="49" t="s">
+        <v>316</v>
+      </c>
+      <c r="F23" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="G23" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="H23" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I23" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J23" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="50">
+        <v>1</v>
+      </c>
+      <c r="L23" s="52">
+        <v>1</v>
+      </c>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A24" s="48">
+        <v>22</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C24" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="D24" s="49" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>317</v>
+      </c>
+      <c r="F24" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G24" s="49" t="s">
+        <v>338</v>
+      </c>
+      <c r="H24" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I24" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="35">
-        <v>1</v>
-      </c>
-      <c r="L11" s="47">
-        <v>9</v>
-      </c>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44">
-        <v>10</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C12" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="D12" s="45" t="s">
-        <v>285</v>
-      </c>
-      <c r="E12" s="45" t="s">
-        <v>286</v>
-      </c>
-      <c r="F12" s="45" t="s">
+      <c r="J24" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="50">
+        <v>1</v>
+      </c>
+      <c r="L24" s="52">
+        <v>1</v>
+      </c>
+      <c r="M24" s="50"/>
+    </row>
+    <row r="25" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A25" s="48">
+        <v>23</v>
+      </c>
+      <c r="B25" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C25" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="F25" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="G12" s="45" t="s">
+      <c r="G25" s="49" t="s">
+        <v>339</v>
+      </c>
+      <c r="H25" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I25" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J25" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="50">
+        <v>1</v>
+      </c>
+      <c r="L25" s="52">
+        <v>1</v>
+      </c>
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A26" s="48">
+        <v>24</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="E26" s="49" t="s">
+        <v>327</v>
+      </c>
+      <c r="F26" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G26" s="49" t="s">
+        <v>340</v>
+      </c>
+      <c r="H26" s="50" t="s">
+        <v>247</v>
+      </c>
+      <c r="I26" s="50" t="s">
+        <v>248</v>
+      </c>
+      <c r="J26" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="50">
+        <v>1</v>
+      </c>
+      <c r="L26" s="52">
+        <v>1</v>
+      </c>
+      <c r="M26" s="50"/>
+    </row>
+    <row r="27" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A27" s="48">
+        <v>25</v>
+      </c>
+      <c r="B27" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C27" s="49" t="s">
         <v>321</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="D27" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="E27" s="49" t="s">
+        <v>328</v>
+      </c>
+      <c r="F27" s="49" t="s">
+        <v>276</v>
+      </c>
+      <c r="G27" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="H27" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I27" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="35">
-        <v>1</v>
-      </c>
-      <c r="L12" s="47">
-        <v>10</v>
-      </c>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44">
-        <v>11</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="D13" s="45" t="s">
-        <v>279</v>
-      </c>
-      <c r="E13" s="45" t="s">
-        <v>280</v>
-      </c>
-      <c r="F13" s="45" t="s">
+      <c r="J27" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="50">
+        <v>1</v>
+      </c>
+      <c r="L27" s="52">
+        <v>1</v>
+      </c>
+      <c r="M27" s="50"/>
+    </row>
+    <row r="28" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="A28" s="48">
+        <v>26</v>
+      </c>
+      <c r="B28" s="49" t="s">
+        <v>343</v>
+      </c>
+      <c r="C28" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="D28" s="49" t="s">
+        <v>320</v>
+      </c>
+      <c r="E28" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="F28" s="49" t="s">
         <v>276</v>
       </c>
-      <c r="G13" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="H13" s="35" t="s">
+      <c r="G28" s="49" t="s">
+        <v>342</v>
+      </c>
+      <c r="H28" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I28" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="35">
-        <v>1</v>
-      </c>
-      <c r="L13" s="47">
-        <v>11</v>
-      </c>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="44">
-        <v>12</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C14" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="D14" s="45" t="s">
-        <v>283</v>
-      </c>
-      <c r="E14" s="45" t="s">
-        <v>284</v>
-      </c>
-      <c r="F14" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G14" s="48" t="s">
-        <v>323</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="35">
-        <v>1</v>
-      </c>
-      <c r="L14" s="47">
-        <v>12</v>
-      </c>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="44">
-        <v>13</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C15" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="D15" s="45" t="s">
-        <v>289</v>
-      </c>
-      <c r="E15" s="45" t="s">
-        <v>290</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G15" s="48" t="s">
-        <v>324</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I15" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="35">
-        <v>1</v>
-      </c>
-      <c r="L15" s="47">
-        <v>13</v>
-      </c>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="44">
-        <v>14</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>291</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>292</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>329</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I16" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="35">
-        <v>1</v>
-      </c>
-      <c r="L16" s="47">
-        <v>14</v>
-      </c>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44">
-        <v>15</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C17" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="D17" s="45" t="s">
-        <v>293</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>294</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>330</v>
-      </c>
-      <c r="H17" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J17" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="35">
-        <v>1</v>
-      </c>
-      <c r="L17" s="47">
-        <v>15</v>
-      </c>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44">
-        <v>16</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C18" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="D18" s="45" t="s">
-        <v>297</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>303</v>
-      </c>
-      <c r="F18" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>331</v>
-      </c>
-      <c r="H18" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J18" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="35">
-        <v>1</v>
-      </c>
-      <c r="L18" s="47">
-        <v>16</v>
-      </c>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44">
-        <v>17</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C19" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="D19" s="45" t="s">
-        <v>298</v>
-      </c>
-      <c r="E19" s="45" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>332</v>
-      </c>
-      <c r="H19" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I19" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J19" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="35">
-        <v>1</v>
-      </c>
-      <c r="L19" s="47">
-        <v>17</v>
-      </c>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="44">
-        <v>18</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C20" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="D20" s="45" t="s">
-        <v>299</v>
-      </c>
-      <c r="E20" s="45" t="s">
-        <v>305</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>333</v>
-      </c>
-      <c r="H20" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I20" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J20" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="35">
-        <v>1</v>
-      </c>
-      <c r="L20" s="47">
-        <v>18</v>
-      </c>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="44">
-        <v>19</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C21" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="D21" s="45" t="s">
-        <v>306</v>
-      </c>
-      <c r="E21" s="45" t="s">
-        <v>307</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G21" s="48" t="s">
-        <v>334</v>
-      </c>
-      <c r="H21" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I21" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J21" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="35">
-        <v>1</v>
-      </c>
-      <c r="L21" s="47">
-        <v>19</v>
-      </c>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44">
-        <v>20</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C22" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>308</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>314</v>
-      </c>
-      <c r="F22" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G22" s="48" t="s">
-        <v>335</v>
-      </c>
-      <c r="H22" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I22" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J22" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="35">
-        <v>1</v>
-      </c>
-      <c r="L22" s="47">
-        <v>20</v>
-      </c>
-      <c r="M22" s="35"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="44">
-        <v>21</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>277</v>
-      </c>
-      <c r="C23" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="D23" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="E23" s="45" t="s">
-        <v>315</v>
-      </c>
-      <c r="F23" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G23" s="45" t="s">
-        <v>336</v>
-      </c>
-      <c r="H23" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I23" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J23" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="35">
-        <v>1</v>
-      </c>
-      <c r="L23" s="47">
-        <v>21</v>
-      </c>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="44">
-        <v>22</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>312</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>316</v>
-      </c>
-      <c r="F24" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>337</v>
-      </c>
-      <c r="H24" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I24" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J24" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="35">
-        <v>1</v>
-      </c>
-      <c r="L24" s="47">
-        <v>22</v>
-      </c>
-      <c r="M24" s="35"/>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="44">
-        <v>23</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>317</v>
-      </c>
-      <c r="E25" s="45" t="s">
-        <v>325</v>
-      </c>
-      <c r="F25" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>338</v>
-      </c>
-      <c r="H25" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I25" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J25" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="35">
-        <v>1</v>
-      </c>
-      <c r="L25" s="47">
-        <v>23</v>
-      </c>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="44">
-        <v>24</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="E26" s="45" t="s">
-        <v>326</v>
-      </c>
-      <c r="F26" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>339</v>
-      </c>
-      <c r="H26" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I26" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J26" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="35">
-        <v>1</v>
-      </c>
-      <c r="L26" s="47">
-        <v>24</v>
-      </c>
-      <c r="M26" s="35"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44">
-        <v>25</v>
-      </c>
-      <c r="B27" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C27" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="D27" s="45" t="s">
-        <v>320</v>
-      </c>
-      <c r="E27" s="45" t="s">
-        <v>327</v>
-      </c>
-      <c r="F27" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>340</v>
-      </c>
-      <c r="H27" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I27" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J27" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="35">
-        <v>1</v>
-      </c>
-      <c r="L27" s="47">
-        <v>25</v>
-      </c>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="44">
-        <v>26</v>
-      </c>
-      <c r="B28" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C28" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="D28" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="E28" s="45" t="s">
-        <v>328</v>
-      </c>
-      <c r="F28" s="45" t="s">
-        <v>276</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>341</v>
-      </c>
-      <c r="H28" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I28" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J28" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="35">
-        <v>1</v>
-      </c>
-      <c r="L28" s="47">
-        <v>26</v>
-      </c>
-      <c r="M28" s="35"/>
-    </row>
-    <row r="29" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="44">
-        <v>27</v>
-      </c>
-      <c r="B29" s="45" t="s">
-        <v>342</v>
-      </c>
-      <c r="C29" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="D29" s="45" t="s">
-        <v>319</v>
-      </c>
-      <c r="E29" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="F29" s="45" t="s">
-        <v>252</v>
-      </c>
-      <c r="G29" s="45" t="s">
-        <v>355</v>
-      </c>
-      <c r="H29" s="35" t="s">
-        <v>247</v>
-      </c>
-      <c r="I29" s="35" t="s">
-        <v>248</v>
-      </c>
-      <c r="J29" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="K29" s="35">
-        <v>1</v>
-      </c>
-      <c r="L29" s="47">
-        <v>27</v>
-      </c>
-      <c r="M29" s="35"/>
+      <c r="J28" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="50">
+        <v>1</v>
+      </c>
+      <c r="L28" s="52">
+        <v>1</v>
+      </c>
+      <c r="M28" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3093,7 +3065,7 @@
   <conditionalFormatting sqref="E1:F1">
     <cfRule type="duplicateValues" dxfId="2" priority="543"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J29">
+  <conditionalFormatting sqref="J3:J28">
     <cfRule type="cellIs" dxfId="1" priority="140" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
@@ -3102,7 +3074,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J29" xr:uid="{5653054A-31BE-44E7-A7E2-3C79ECC9C177}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:J28" xr:uid="{5653054A-31BE-44E7-A7E2-3C79ECC9C177}">
       <formula1>"Yes, No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3115,17 +3087,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49FAA04-E460-4C50-88BA-FFE3A62A878C}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
     <col min="6" max="7" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.21875" bestFit="1" customWidth="1"/>
@@ -3134,7 +3106,7 @@
     <col min="13" max="13" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="34" t="s">
         <v>16</v>
       </c>
@@ -3160,30 +3132,30 @@
         <v>281</v>
       </c>
       <c r="I1" s="34" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="J1" s="34" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K1" s="34" t="s">
         <v>282</v>
       </c>
       <c r="L1" s="34" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M1" s="34" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>348</v>
+      <c r="B2" s="44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>353</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>249</v>
@@ -3191,81 +3163,90 @@
       <c r="E2" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="46" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="G2" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="H2" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="I2" s="45" t="s">
+        <v>347</v>
+      </c>
+      <c r="J2" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>275</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="44" t="s">
+        <v>352</v>
+      </c>
+      <c r="C3" s="57" t="s">
+        <v>349</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="47">
+        <v>1234</v>
+      </c>
+      <c r="F3" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="G3" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="H3" s="45" t="s">
+        <v>346</v>
+      </c>
+      <c r="I3" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="C3" s="45">
-        <v>1023129537</v>
-      </c>
-      <c r="D3" s="49" t="s">
-        <v>352</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1234</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>310</v>
+      <c r="J3" s="45" t="s">
+        <v>348</v>
+      </c>
+      <c r="K3" s="45" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>289</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1" display="amged.hassan@gmail" xr:uid="{DABB8B1D-B341-44B7-818C-B26827E371F8}"/>
-    <hyperlink ref="L3" r:id="rId2" display="amged.hassan@gmail" xr:uid="{E067AC56-9AC1-46E1-86DF-CEE8DF7EA734}"/>
-    <hyperlink ref="M2" r:id="rId3" display="amged.hassan@gmail" xr:uid="{076452FC-4FDD-4F31-A2EF-9177693D31D2}"/>
-    <hyperlink ref="M3" r:id="rId4" display="amged.hassan@gmail" xr:uid="{DBCDCA4D-1FEE-4A74-A97C-B0A7ABE96E38}"/>
-    <hyperlink ref="B2" r:id="rId5" xr:uid="{40E0E526-65C1-4713-81E8-BA6B1C11C2D7}"/>
-    <hyperlink ref="B3" r:id="rId6" xr:uid="{1FC1855D-DA00-4A10-A369-AB2E45CA5D3F}"/>
-    <hyperlink ref="C2" r:id="rId7" display="super_admin@stg-admin-sakani.housingapps.sa" xr:uid="{780391DC-D414-49E8-AC17-A14566BFFC9A}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{89BB5D0C-6D59-48CE-B1C2-2E9012383109}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{6ED3EA3E-DC13-440C-B445-FF6CDFDB58DF}"/>
+    <hyperlink ref="K3" r:id="rId3" xr:uid="{050A5938-C186-4CC1-BE03-F08AC4BB2FF2}"/>
+    <hyperlink ref="H2" r:id="rId4" xr:uid="{12107582-160F-41E2-9DD8-D8EB19C83B0B}"/>
+    <hyperlink ref="L2" r:id="rId5" display="amged.hassan@gmail" xr:uid="{DABB8B1D-B341-44B7-818C-B26827E371F8}"/>
+    <hyperlink ref="L3" r:id="rId6" display="amged.hassan@gmail" xr:uid="{E067AC56-9AC1-46E1-86DF-CEE8DF7EA734}"/>
+    <hyperlink ref="I2" r:id="rId7" display="amged.hassan@gmail.com" xr:uid="{2F4D22A1-EC16-4E3F-B2EB-EE5124D41C82}"/>
+    <hyperlink ref="J2" r:id="rId8" xr:uid="{ECE03120-FFD1-4F81-8AE8-18037974C9CB}"/>
+    <hyperlink ref="M2" r:id="rId9" display="amged.hassan@gmail" xr:uid="{076452FC-4FDD-4F31-A2EF-9177693D31D2}"/>
+    <hyperlink ref="M3" r:id="rId10" display="amged.hassan@gmail" xr:uid="{DBCDCA4D-1FEE-4A74-A97C-B0A7ABE96E38}"/>
+    <hyperlink ref="H3" r:id="rId11" xr:uid="{FFB699BB-5DDA-4BAF-B222-EC9A61F1C0EA}"/>
+    <hyperlink ref="I3" r:id="rId12" display="amged.hassan@gmail.com" xr:uid="{5A0C3EC5-7927-4E1F-B4AB-9FA58E9ACF87}"/>
+    <hyperlink ref="J3" r:id="rId13" xr:uid="{EE2F752A-76CF-4122-B864-2B8C016EC976}"/>
+    <hyperlink ref="B2" r:id="rId14" xr:uid="{40E0E526-65C1-4713-81E8-BA6B1C11C2D7}"/>
+    <hyperlink ref="B3" r:id="rId15" xr:uid="{1FC1855D-DA00-4A10-A369-AB2E45CA5D3F}"/>
+    <hyperlink ref="C2" r:id="rId16" display="super_admin@stg-admin-sakani.housingapps.sa" xr:uid="{780391DC-D414-49E8-AC17-A14566BFFC9A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3279,9 +3260,9 @@
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A1" s="8">
         <v>8</v>
       </c>
@@ -3319,7 +3300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A2" s="17">
         <v>4</v>
       </c>
@@ -3357,7 +3338,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -3395,7 +3376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A4" s="12">
         <v>4</v>
       </c>
@@ -3433,7 +3414,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A5" s="12">
         <v>5</v>
       </c>
@@ -3471,7 +3452,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A6" s="12">
         <v>4</v>
       </c>
@@ -3509,7 +3490,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A7" s="12">
         <v>7</v>
       </c>
@@ -3547,7 +3528,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A8" s="12">
         <v>1</v>
       </c>
@@ -3585,7 +3566,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A9" s="12">
         <v>47</v>
       </c>
@@ -3623,7 +3604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A10" s="12">
         <v>48</v>
       </c>
@@ -3661,7 +3642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A11" s="12">
         <v>49</v>
       </c>
@@ -3699,7 +3680,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A12" s="12">
         <v>50</v>
       </c>
@@ -3737,7 +3718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A13" s="12">
         <v>51</v>
       </c>
@@ -3775,7 +3756,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A14" s="12">
         <v>52</v>
       </c>
@@ -3813,7 +3794,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A15" s="12">
         <v>53</v>
       </c>
@@ -3851,7 +3832,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A16" s="12">
         <v>54</v>
       </c>
@@ -3889,7 +3870,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A17" s="12">
         <v>55</v>
       </c>
@@ -3927,7 +3908,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A18" s="12">
         <v>56</v>
       </c>
@@ -3965,7 +3946,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A19" s="12">
         <v>57</v>
       </c>
@@ -4003,7 +3984,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A20" s="12">
         <v>58</v>
       </c>
@@ -4041,7 +4022,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A21" s="12">
         <v>59</v>
       </c>
@@ -4079,7 +4060,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="22" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A22" s="12">
         <v>60</v>
       </c>
@@ -4117,7 +4098,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A23" s="12">
         <v>14</v>
       </c>
@@ -4155,7 +4136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A24" s="12">
         <v>15</v>
       </c>
@@ -4193,7 +4174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A25" s="12">
         <v>16</v>
       </c>
@@ -4231,7 +4212,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A26" s="12">
         <v>17</v>
       </c>
@@ -4269,7 +4250,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A27" s="12">
         <v>18</v>
       </c>
@@ -4307,7 +4288,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A28" s="12">
         <v>19</v>
       </c>
@@ -4345,7 +4326,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A29" s="12">
         <v>20</v>
       </c>
@@ -4383,7 +4364,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A30" s="12">
         <v>21</v>
       </c>
@@ -4421,7 +4402,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A31" s="12">
         <v>22</v>
       </c>
@@ -4459,7 +4440,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A32" s="12">
         <v>23</v>
       </c>
@@ -4497,7 +4478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A33" s="12">
         <v>24</v>
       </c>
@@ -4535,7 +4516,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A34" s="12">
         <v>25</v>
       </c>
@@ -4573,7 +4554,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A35" s="12">
         <v>26</v>
       </c>
@@ -4611,7 +4592,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A36" s="12">
         <v>27</v>
       </c>
@@ -4649,7 +4630,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A37" s="12">
         <v>28</v>
       </c>
@@ -4687,7 +4668,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A38" s="12">
         <v>29</v>
       </c>
@@ -4725,7 +4706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A39" s="12">
         <v>30</v>
       </c>
@@ -4763,7 +4744,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A40" s="12">
         <v>31</v>
       </c>
@@ -4801,7 +4782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A41" s="12">
         <v>32</v>
       </c>
@@ -4839,7 +4820,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A42" s="12">
         <v>33</v>
       </c>
@@ -4877,23 +4858,23 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2" x14ac:dyDescent="0.45">
-      <c r="A43" s="50" t="s">
+    <row r="43" spans="1:12" s="2" customFormat="1" ht="19.2">
+      <c r="A43" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="52"/>
-    </row>
-    <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B43" s="55"/>
+      <c r="C43" s="55"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="55"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="55"/>
+      <c r="L43" s="56"/>
+    </row>
+    <row r="44" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A44" s="12">
         <v>27</v>
       </c>
@@ -4931,7 +4912,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A45" s="12">
         <v>28</v>
       </c>
@@ -4969,7 +4950,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A46" s="12">
         <v>29</v>
       </c>
@@ -5007,7 +4988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A47" s="12">
         <v>30</v>
       </c>
@@ -5045,7 +5026,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A48" s="12">
         <v>31</v>
       </c>
@@ -5083,7 +5064,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="49" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A49" s="12">
         <v>32</v>
       </c>
@@ -5121,7 +5102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A50" s="12">
         <v>33</v>
       </c>
@@ -5159,7 +5140,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A51" s="12">
         <v>34</v>
       </c>
@@ -5197,7 +5178,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A52" s="12">
         <v>35</v>
       </c>
@@ -5235,7 +5216,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A53" s="12">
         <v>36</v>
       </c>
@@ -5273,7 +5254,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A54" s="12">
         <v>37</v>
       </c>
@@ -5311,7 +5292,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A55" s="12">
         <v>38</v>
       </c>
@@ -5349,7 +5330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A56" s="12">
         <v>39</v>
       </c>
@@ -5387,7 +5368,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:12" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12" s="2" customFormat="1" ht="16.8">
       <c r="A57" s="12">
         <v>40</v>
       </c>
@@ -5441,7 +5422,7 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="34.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
@@ -5457,7 +5438,7 @@
     <col min="12" max="12" width="25.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -5495,7 +5476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
@@ -5525,7 +5506,7 @@
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
         <v>80</v>
       </c>
@@ -5549,7 +5530,7 @@
       <c r="K3" s="26"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
         <v>81</v>
       </c>
@@ -5573,7 +5554,7 @@
       <c r="K4" s="26"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
         <v>102</v>
       </c>
@@ -5603,7 +5584,7 @@
       <c r="K5" s="26"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
         <v>104</v>
       </c>
@@ -5631,7 +5612,7 @@
       <c r="K6" s="26"/>
       <c r="L6" s="6"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
         <v>103</v>
       </c>
@@ -5659,7 +5640,7 @@
       <c r="K7" s="26"/>
       <c r="L7" s="6"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
         <v>112</v>
       </c>
@@ -5685,7 +5666,7 @@
       <c r="K8" s="26"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
         <v>113</v>
       </c>
@@ -5738,7 +5719,7 @@
       <selection activeCell="C19" sqref="C19:C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="36.109375" customWidth="1"/>
     <col min="2" max="2" width="29.88671875" bestFit="1" customWidth="1"/>
@@ -5750,7 +5731,7 @@
     <col min="8" max="8" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="4" t="s">
         <v>16</v>
       </c>
@@ -5776,7 +5757,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -5794,7 +5775,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -5812,7 +5793,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -5830,7 +5811,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -5856,7 +5837,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
@@ -5876,7 +5857,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>81</v>
       </c>
@@ -5896,7 +5877,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>102</v>
       </c>
@@ -5922,7 +5903,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>103</v>
       </c>
@@ -5946,7 +5927,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>104</v>
       </c>
@@ -5970,7 +5951,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>112</v>
       </c>
@@ -5994,7 +5975,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>113</v>
       </c>
@@ -6018,7 +5999,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10">
       <c r="F34" t="s">
         <v>83</v>
       </c>
@@ -6026,7 +6007,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10">
       <c r="E35" t="s">
         <v>91</v>
       </c>
@@ -6034,7 +6015,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10">
       <c r="E36" t="s">
         <v>94</v>
       </c>
@@ -6042,7 +6023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>12</v>
       </c>
@@ -6053,7 +6034,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>13</v>
       </c>
@@ -6067,7 +6048,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>14</v>
       </c>
@@ -6081,7 +6062,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>15</v>
       </c>

--- a/src/test/resources/Run_Manager_Register_Interest.xlsx
+++ b/src/test/resources/Run_Manager_Register_Interest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI_TST_R1\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\New_Sakani_TST_Git\Sakani_TST_New\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707AD6B-DCCB-4C0D-924C-C1086F9449B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E912ADC-68CE-4278-962E-7837A2072A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,7 +1098,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1189,6 +1189,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1495,19 +1501,19 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1517,10 +1523,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1648,9 +1656,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1688,7 +1696,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1794,7 +1802,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1936,7 +1944,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1947,11 +1955,11 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J12"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1"/>
@@ -2042,7 +2050,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+    <row r="3" spans="1:13" ht="30" customHeight="1">
       <c r="A3" s="48">
         <v>1</v>
       </c>
@@ -2064,24 +2072,24 @@
       <c r="G3" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="50">
-        <v>1</v>
-      </c>
-      <c r="L3" s="52">
-        <v>1</v>
-      </c>
-      <c r="M3" s="50"/>
-    </row>
-    <row r="4" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J3" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="35">
+        <v>1</v>
+      </c>
+      <c r="L3" s="51">
+        <v>1</v>
+      </c>
+      <c r="M3" s="35"/>
+    </row>
+    <row r="4" spans="1:13" ht="30" customHeight="1">
       <c r="A4" s="48">
         <v>2</v>
       </c>
@@ -2103,24 +2111,24 @@
       <c r="G4" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="50" t="s">
+      <c r="H4" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="I4" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K4" s="50">
-        <v>1</v>
-      </c>
-      <c r="L4" s="52">
-        <v>1</v>
-      </c>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J4" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="35">
+        <v>1</v>
+      </c>
+      <c r="L4" s="51">
+        <v>1</v>
+      </c>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
       <c r="A5" s="48">
         <v>3</v>
       </c>
@@ -2142,24 +2150,24 @@
       <c r="G5" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="50" t="s">
+      <c r="H5" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I5" s="50" t="s">
+      <c r="I5" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="50">
-        <v>1</v>
-      </c>
-      <c r="L5" s="52">
-        <v>1</v>
-      </c>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J5" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="35">
+        <v>1</v>
+      </c>
+      <c r="L5" s="51">
+        <v>1</v>
+      </c>
+      <c r="M5" s="35"/>
+    </row>
+    <row r="6" spans="1:13" ht="30" customHeight="1">
       <c r="A6" s="48">
         <v>4</v>
       </c>
@@ -2181,24 +2189,24 @@
       <c r="G6" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K6" s="50">
-        <v>1</v>
-      </c>
-      <c r="L6" s="52">
-        <v>1</v>
-      </c>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J6" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="35">
+        <v>1</v>
+      </c>
+      <c r="L6" s="51">
+        <v>1</v>
+      </c>
+      <c r="M6" s="35"/>
+    </row>
+    <row r="7" spans="1:13" ht="30" customHeight="1">
       <c r="A7" s="48">
         <v>5</v>
       </c>
@@ -2220,24 +2228,24 @@
       <c r="G7" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="50" t="s">
+      <c r="H7" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I7" s="50" t="s">
+      <c r="I7" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K7" s="50">
-        <v>1</v>
-      </c>
-      <c r="L7" s="52">
-        <v>1</v>
-      </c>
-      <c r="M7" s="50"/>
-    </row>
-    <row r="8" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J7" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="35">
+        <v>1</v>
+      </c>
+      <c r="L7" s="51">
+        <v>1</v>
+      </c>
+      <c r="M7" s="35"/>
+    </row>
+    <row r="8" spans="1:13" ht="30" customHeight="1">
       <c r="A8" s="48">
         <v>6</v>
       </c>
@@ -2259,24 +2267,24 @@
       <c r="G8" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I8" s="50" t="s">
+      <c r="I8" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8" s="50">
-        <v>1</v>
-      </c>
-      <c r="L8" s="52">
-        <v>1</v>
-      </c>
-      <c r="M8" s="50"/>
-    </row>
-    <row r="9" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J8" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="35">
+        <v>1</v>
+      </c>
+      <c r="L8" s="51">
+        <v>1</v>
+      </c>
+      <c r="M8" s="35"/>
+    </row>
+    <row r="9" spans="1:13" ht="30" customHeight="1">
       <c r="A9" s="48">
         <v>7</v>
       </c>
@@ -2298,24 +2306,24 @@
       <c r="G9" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I9" s="50" t="s">
+      <c r="I9" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="50">
-        <v>1</v>
-      </c>
-      <c r="L9" s="52">
-        <v>1</v>
-      </c>
-      <c r="M9" s="50"/>
-    </row>
-    <row r="10" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J9" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="35">
+        <v>1</v>
+      </c>
+      <c r="L9" s="51">
+        <v>1</v>
+      </c>
+      <c r="M9" s="35"/>
+    </row>
+    <row r="10" spans="1:13" ht="30" customHeight="1">
       <c r="A10" s="48">
         <v>8</v>
       </c>
@@ -2337,24 +2345,24 @@
       <c r="G10" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="H10" s="50" t="s">
+      <c r="H10" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K10" s="50">
-        <v>1</v>
-      </c>
-      <c r="L10" s="52">
-        <v>1</v>
-      </c>
-      <c r="M10" s="50"/>
-    </row>
-    <row r="11" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J10" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K10" s="35">
+        <v>1</v>
+      </c>
+      <c r="L10" s="51">
+        <v>1</v>
+      </c>
+      <c r="M10" s="35"/>
+    </row>
+    <row r="11" spans="1:13" ht="30" customHeight="1">
       <c r="A11" s="48">
         <v>9</v>
       </c>
@@ -2376,24 +2384,24 @@
       <c r="G11" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="H11" s="50" t="s">
+      <c r="H11" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I11" s="50" t="s">
+      <c r="I11" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K11" s="50">
-        <v>1</v>
-      </c>
-      <c r="L11" s="52">
-        <v>1</v>
-      </c>
-      <c r="M11" s="50"/>
-    </row>
-    <row r="12" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J11" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="35">
+        <v>1</v>
+      </c>
+      <c r="L11" s="51">
+        <v>1</v>
+      </c>
+      <c r="M11" s="35"/>
+    </row>
+    <row r="12" spans="1:13" ht="30" customHeight="1">
       <c r="A12" s="48">
         <v>10</v>
       </c>
@@ -2415,24 +2423,24 @@
       <c r="G12" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="H12" s="50" t="s">
+      <c r="H12" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="50" t="s">
+      <c r="I12" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K12" s="50">
-        <v>1</v>
-      </c>
-      <c r="L12" s="52">
-        <v>1</v>
-      </c>
-      <c r="M12" s="50"/>
-    </row>
-    <row r="13" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J12" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="35">
+        <v>1</v>
+      </c>
+      <c r="L12" s="51">
+        <v>1</v>
+      </c>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:13" ht="30" customHeight="1">
       <c r="A13" s="48">
         <v>11</v>
       </c>
@@ -2454,24 +2462,24 @@
       <c r="G13" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="H13" s="50" t="s">
+      <c r="H13" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I13" s="50" t="s">
+      <c r="I13" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="50">
-        <v>1</v>
-      </c>
-      <c r="L13" s="52">
-        <v>1</v>
-      </c>
-      <c r="M13" s="50"/>
-    </row>
-    <row r="14" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J13" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="35">
+        <v>1</v>
+      </c>
+      <c r="L13" s="51">
+        <v>1</v>
+      </c>
+      <c r="M13" s="35"/>
+    </row>
+    <row r="14" spans="1:13" ht="30" customHeight="1">
       <c r="A14" s="48">
         <v>12</v>
       </c>
@@ -2493,24 +2501,24 @@
       <c r="G14" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="H14" s="50" t="s">
+      <c r="H14" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I14" s="50" t="s">
+      <c r="I14" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="50">
-        <v>1</v>
-      </c>
-      <c r="L14" s="52">
-        <v>1</v>
-      </c>
-      <c r="M14" s="50"/>
-    </row>
-    <row r="15" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J14" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="35">
+        <v>1</v>
+      </c>
+      <c r="L14" s="51">
+        <v>1</v>
+      </c>
+      <c r="M14" s="35"/>
+    </row>
+    <row r="15" spans="1:13" ht="30" customHeight="1">
       <c r="A15" s="48">
         <v>13</v>
       </c>
@@ -2532,24 +2540,24 @@
       <c r="G15" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I15" s="50" t="s">
+      <c r="I15" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="50">
-        <v>1</v>
-      </c>
-      <c r="L15" s="52">
-        <v>1</v>
-      </c>
-      <c r="M15" s="50"/>
-    </row>
-    <row r="16" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J15" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="35">
+        <v>1</v>
+      </c>
+      <c r="L15" s="51">
+        <v>1</v>
+      </c>
+      <c r="M15" s="35"/>
+    </row>
+    <row r="16" spans="1:13" ht="30" customHeight="1">
       <c r="A16" s="48">
         <v>14</v>
       </c>
@@ -2571,24 +2579,24 @@
       <c r="G16" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="H16" s="50" t="s">
+      <c r="H16" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="50" t="s">
+      <c r="I16" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="50">
-        <v>1</v>
-      </c>
-      <c r="L16" s="52">
-        <v>1</v>
-      </c>
-      <c r="M16" s="50"/>
-    </row>
-    <row r="17" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J16" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="35">
+        <v>1</v>
+      </c>
+      <c r="L16" s="51">
+        <v>1</v>
+      </c>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" ht="30" customHeight="1">
       <c r="A17" s="48">
         <v>15</v>
       </c>
@@ -2610,24 +2618,24 @@
       <c r="G17" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="H17" s="50" t="s">
+      <c r="H17" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I17" s="50" t="s">
+      <c r="I17" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="50">
-        <v>1</v>
-      </c>
-      <c r="L17" s="52">
-        <v>1</v>
-      </c>
-      <c r="M17" s="50"/>
-    </row>
-    <row r="18" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J17" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="35">
+        <v>1</v>
+      </c>
+      <c r="L17" s="51">
+        <v>1</v>
+      </c>
+      <c r="M17" s="35"/>
+    </row>
+    <row r="18" spans="1:13" ht="30" customHeight="1">
       <c r="A18" s="48">
         <v>16</v>
       </c>
@@ -2649,24 +2657,24 @@
       <c r="G18" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="H18" s="50" t="s">
+      <c r="H18" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I18" s="50" t="s">
+      <c r="I18" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J18" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="50">
-        <v>1</v>
-      </c>
-      <c r="L18" s="52">
-        <v>1</v>
-      </c>
-      <c r="M18" s="50"/>
-    </row>
-    <row r="19" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J18" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="35">
+        <v>1</v>
+      </c>
+      <c r="L18" s="51">
+        <v>1</v>
+      </c>
+      <c r="M18" s="35"/>
+    </row>
+    <row r="19" spans="1:13" ht="30" customHeight="1">
       <c r="A19" s="48">
         <v>17</v>
       </c>
@@ -2688,24 +2696,24 @@
       <c r="G19" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="H19" s="50" t="s">
+      <c r="H19" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I19" s="50" t="s">
+      <c r="I19" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="50">
-        <v>1</v>
-      </c>
-      <c r="L19" s="52">
-        <v>1</v>
-      </c>
-      <c r="M19" s="50"/>
-    </row>
-    <row r="20" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J19" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="35">
+        <v>1</v>
+      </c>
+      <c r="L19" s="51">
+        <v>1</v>
+      </c>
+      <c r="M19" s="35"/>
+    </row>
+    <row r="20" spans="1:13" ht="30" customHeight="1">
       <c r="A20" s="48">
         <v>18</v>
       </c>
@@ -2727,24 +2735,24 @@
       <c r="G20" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="H20" s="50" t="s">
+      <c r="H20" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J20" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="50">
-        <v>1</v>
-      </c>
-      <c r="L20" s="52">
-        <v>1</v>
-      </c>
-      <c r="M20" s="50"/>
-    </row>
-    <row r="21" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J20" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="35">
+        <v>1</v>
+      </c>
+      <c r="L20" s="51">
+        <v>1</v>
+      </c>
+      <c r="M20" s="35"/>
+    </row>
+    <row r="21" spans="1:13" ht="30" customHeight="1">
       <c r="A21" s="48">
         <v>19</v>
       </c>
@@ -2766,24 +2774,24 @@
       <c r="G21" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I21" s="50" t="s">
+      <c r="I21" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="50">
-        <v>1</v>
-      </c>
-      <c r="L21" s="52">
-        <v>1</v>
-      </c>
-      <c r="M21" s="50"/>
-    </row>
-    <row r="22" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J21" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="35">
+        <v>1</v>
+      </c>
+      <c r="L21" s="51">
+        <v>1</v>
+      </c>
+      <c r="M21" s="35"/>
+    </row>
+    <row r="22" spans="1:13" ht="30" customHeight="1">
       <c r="A22" s="48">
         <v>20</v>
       </c>
@@ -2796,7 +2804,7 @@
       <c r="D22" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="E22" s="49" t="s">
+      <c r="E22" s="57" t="s">
         <v>315</v>
       </c>
       <c r="F22" s="49" t="s">
@@ -2805,24 +2813,24 @@
       <c r="G22" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="H22" s="50" t="s">
+      <c r="H22" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I22" s="50" t="s">
+      <c r="I22" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J22" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="50">
-        <v>1</v>
-      </c>
-      <c r="L22" s="52">
-        <v>1</v>
-      </c>
-      <c r="M22" s="50"/>
-    </row>
-    <row r="23" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J22" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="35">
+        <v>1</v>
+      </c>
+      <c r="L22" s="51">
+        <v>1</v>
+      </c>
+      <c r="M22" s="35"/>
+    </row>
+    <row r="23" spans="1:13" ht="30" customHeight="1">
       <c r="A23" s="48">
         <v>21</v>
       </c>
@@ -2835,7 +2843,7 @@
       <c r="D23" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="49" t="s">
+      <c r="E23" s="57" t="s">
         <v>316</v>
       </c>
       <c r="F23" s="49" t="s">
@@ -2844,24 +2852,24 @@
       <c r="G23" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="H23" s="50" t="s">
+      <c r="H23" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I23" s="50" t="s">
+      <c r="I23" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J23" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="50">
-        <v>1</v>
-      </c>
-      <c r="L23" s="52">
-        <v>1</v>
-      </c>
-      <c r="M23" s="50"/>
-    </row>
-    <row r="24" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J23" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="35">
+        <v>1</v>
+      </c>
+      <c r="L23" s="51">
+        <v>1</v>
+      </c>
+      <c r="M23" s="35"/>
+    </row>
+    <row r="24" spans="1:13" ht="30" customHeight="1">
       <c r="A24" s="48">
         <v>22</v>
       </c>
@@ -2874,7 +2882,7 @@
       <c r="D24" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="57" t="s">
         <v>317</v>
       </c>
       <c r="F24" s="49" t="s">
@@ -2883,24 +2891,24 @@
       <c r="G24" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="H24" s="50" t="s">
+      <c r="H24" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="50" t="s">
+      <c r="I24" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J24" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="50">
-        <v>1</v>
-      </c>
-      <c r="L24" s="52">
-        <v>1</v>
-      </c>
-      <c r="M24" s="50"/>
-    </row>
-    <row r="25" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J24" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="35">
+        <v>1</v>
+      </c>
+      <c r="L24" s="51">
+        <v>1</v>
+      </c>
+      <c r="M24" s="35"/>
+    </row>
+    <row r="25" spans="1:13" ht="30" customHeight="1">
       <c r="A25" s="48">
         <v>23</v>
       </c>
@@ -2913,7 +2921,7 @@
       <c r="D25" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="E25" s="49" t="s">
+      <c r="E25" s="57" t="s">
         <v>326</v>
       </c>
       <c r="F25" s="49" t="s">
@@ -2922,24 +2930,24 @@
       <c r="G25" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="H25" s="50" t="s">
+      <c r="H25" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I25" s="50" t="s">
+      <c r="I25" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J25" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="50">
-        <v>1</v>
-      </c>
-      <c r="L25" s="52">
-        <v>1</v>
-      </c>
-      <c r="M25" s="50"/>
-    </row>
-    <row r="26" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J25" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="35">
+        <v>1</v>
+      </c>
+      <c r="L25" s="51">
+        <v>1</v>
+      </c>
+      <c r="M25" s="35"/>
+    </row>
+    <row r="26" spans="1:13" ht="30" customHeight="1">
       <c r="A26" s="48">
         <v>24</v>
       </c>
@@ -2961,24 +2969,24 @@
       <c r="G26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="H26" s="50" t="s">
+      <c r="H26" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I26" s="50" t="s">
+      <c r="I26" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J26" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="50">
-        <v>1</v>
-      </c>
-      <c r="L26" s="52">
-        <v>1</v>
-      </c>
-      <c r="M26" s="50"/>
-    </row>
-    <row r="27" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J26" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="35">
+        <v>1</v>
+      </c>
+      <c r="L26" s="51">
+        <v>1</v>
+      </c>
+      <c r="M26" s="35"/>
+    </row>
+    <row r="27" spans="1:13" ht="30" customHeight="1">
       <c r="A27" s="48">
         <v>25</v>
       </c>
@@ -3000,24 +3008,24 @@
       <c r="G27" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="H27" s="50" t="s">
+      <c r="H27" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I27" s="50" t="s">
+      <c r="I27" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J27" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="50">
-        <v>1</v>
-      </c>
-      <c r="L27" s="52">
-        <v>1</v>
-      </c>
-      <c r="M27" s="50"/>
-    </row>
-    <row r="28" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
+      <c r="J27" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="35">
+        <v>1</v>
+      </c>
+      <c r="L27" s="51">
+        <v>1</v>
+      </c>
+      <c r="M27" s="35"/>
+    </row>
+    <row r="28" spans="1:13" ht="30" customHeight="1">
       <c r="A28" s="48">
         <v>26</v>
       </c>
@@ -3030,7 +3038,7 @@
       <c r="D28" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="E28" s="49" t="s">
+      <c r="E28" s="58" t="s">
         <v>329</v>
       </c>
       <c r="F28" s="49" t="s">
@@ -3039,22 +3047,22 @@
       <c r="G28" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="H28" s="50" t="s">
+      <c r="H28" s="35" t="s">
         <v>247</v>
       </c>
-      <c r="I28" s="50" t="s">
+      <c r="I28" s="35" t="s">
         <v>248</v>
       </c>
-      <c r="J28" s="51" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="50">
-        <v>1</v>
-      </c>
-      <c r="L28" s="52">
-        <v>1</v>
-      </c>
-      <c r="M28" s="50"/>
+      <c r="J28" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="35">
+        <v>1</v>
+      </c>
+      <c r="L28" s="51">
+        <v>1</v>
+      </c>
+      <c r="M28" s="35"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3087,8 +3095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49FAA04-E460-4C50-88BA-FFE3A62A878C}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3154,7 +3162,7 @@
       <c r="B2" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="53" t="s">
         <v>353</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3195,7 +3203,7 @@
       <c r="B3" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="52" t="s">
         <v>349</v>
       </c>
       <c r="D3" s="45" t="s">

--- a/src/test/resources/Run_Manager_Register_Interest.xlsx
+++ b/src/test/resources/Run_Manager_Register_Interest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\New_Sakani_TST_Git\Sakani_TST_New\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Automation_NHC_Projects\SAKANI_TST_R1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E912ADC-68CE-4278-962E-7837A2072A5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3707AD6B-DCCB-4C0D-924C-C1086F9449B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="697" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1098,7 +1098,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1189,12 +1189,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -1501,19 +1495,19 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1523,12 +1517,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1656,9 +1648,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1696,7 +1688,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1802,7 +1794,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1944,7 +1936,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1955,11 +1947,11 @@
   <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="G5" sqref="G5"/>
       <selection pane="topRight" activeCell="G5" sqref="G5"/>
       <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <selection pane="bottomRight" activeCell="J3" sqref="J3:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="30" customHeight="1"/>
@@ -2050,7 +2042,7 @@
       <c r="L2" s="43"/>
       <c r="M2" s="39"/>
     </row>
-    <row r="3" spans="1:13" ht="30" customHeight="1">
+    <row r="3" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A3" s="48">
         <v>1</v>
       </c>
@@ -2072,24 +2064,24 @@
       <c r="G3" s="49" t="s">
         <v>251</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J3" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="35">
-        <v>1</v>
-      </c>
-      <c r="L3" s="51">
-        <v>1</v>
-      </c>
-      <c r="M3" s="35"/>
-    </row>
-    <row r="4" spans="1:13" ht="30" customHeight="1">
+      <c r="J3" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="50">
+        <v>1</v>
+      </c>
+      <c r="L3" s="52">
+        <v>1</v>
+      </c>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A4" s="48">
         <v>2</v>
       </c>
@@ -2111,24 +2103,24 @@
       <c r="G4" s="49" t="s">
         <v>257</v>
       </c>
-      <c r="H4" s="35" t="s">
+      <c r="H4" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I4" s="35" t="s">
+      <c r="I4" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J4" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K4" s="35">
-        <v>1</v>
-      </c>
-      <c r="L4" s="51">
-        <v>1</v>
-      </c>
-      <c r="M4" s="35"/>
-    </row>
-    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="J4" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="50">
+        <v>1</v>
+      </c>
+      <c r="L4" s="52">
+        <v>1</v>
+      </c>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="48">
         <v>3</v>
       </c>
@@ -2150,24 +2142,24 @@
       <c r="G5" s="49" t="s">
         <v>267</v>
       </c>
-      <c r="H5" s="35" t="s">
+      <c r="H5" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I5" s="35" t="s">
+      <c r="I5" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J5" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="35">
-        <v>1</v>
-      </c>
-      <c r="L5" s="51">
-        <v>1</v>
-      </c>
-      <c r="M5" s="35"/>
-    </row>
-    <row r="6" spans="1:13" ht="30" customHeight="1">
+      <c r="J5" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="50">
+        <v>1</v>
+      </c>
+      <c r="L5" s="52">
+        <v>1</v>
+      </c>
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A6" s="48">
         <v>4</v>
       </c>
@@ -2189,24 +2181,24 @@
       <c r="G6" s="49" t="s">
         <v>270</v>
       </c>
-      <c r="H6" s="35" t="s">
+      <c r="H6" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I6" s="35" t="s">
+      <c r="I6" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J6" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K6" s="35">
-        <v>1</v>
-      </c>
-      <c r="L6" s="51">
-        <v>1</v>
-      </c>
-      <c r="M6" s="35"/>
-    </row>
-    <row r="7" spans="1:13" ht="30" customHeight="1">
+      <c r="J6" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="50">
+        <v>1</v>
+      </c>
+      <c r="L6" s="52">
+        <v>1</v>
+      </c>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A7" s="48">
         <v>5</v>
       </c>
@@ -2228,24 +2220,24 @@
       <c r="G7" s="49" t="s">
         <v>273</v>
       </c>
-      <c r="H7" s="35" t="s">
+      <c r="H7" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J7" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K7" s="35">
-        <v>1</v>
-      </c>
-      <c r="L7" s="51">
-        <v>1</v>
-      </c>
-      <c r="M7" s="35"/>
-    </row>
-    <row r="8" spans="1:13" ht="30" customHeight="1">
+      <c r="J7" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="50">
+        <v>1</v>
+      </c>
+      <c r="L7" s="52">
+        <v>1</v>
+      </c>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A8" s="48">
         <v>6</v>
       </c>
@@ -2267,24 +2259,24 @@
       <c r="G8" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="H8" s="35" t="s">
+      <c r="H8" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J8" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="35">
-        <v>1</v>
-      </c>
-      <c r="L8" s="51">
-        <v>1</v>
-      </c>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:13" ht="30" customHeight="1">
+      <c r="J8" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="50">
+        <v>1</v>
+      </c>
+      <c r="L8" s="52">
+        <v>1</v>
+      </c>
+      <c r="M8" s="50"/>
+    </row>
+    <row r="9" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A9" s="48">
         <v>7</v>
       </c>
@@ -2306,24 +2298,24 @@
       <c r="G9" s="49" t="s">
         <v>302</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="H9" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I9" s="35" t="s">
+      <c r="I9" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J9" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="35">
-        <v>1</v>
-      </c>
-      <c r="L9" s="51">
-        <v>1</v>
-      </c>
-      <c r="M9" s="35"/>
-    </row>
-    <row r="10" spans="1:13" ht="30" customHeight="1">
+      <c r="J9" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="50">
+        <v>1</v>
+      </c>
+      <c r="L9" s="52">
+        <v>1</v>
+      </c>
+      <c r="M9" s="50"/>
+    </row>
+    <row r="10" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A10" s="48">
         <v>8</v>
       </c>
@@ -2345,24 +2337,24 @@
       <c r="G10" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="H10" s="35" t="s">
+      <c r="H10" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I10" s="35" t="s">
+      <c r="I10" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J10" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10" s="35">
-        <v>1</v>
-      </c>
-      <c r="L10" s="51">
-        <v>1</v>
-      </c>
-      <c r="M10" s="35"/>
-    </row>
-    <row r="11" spans="1:13" ht="30" customHeight="1">
+      <c r="J10" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" s="50">
+        <v>1</v>
+      </c>
+      <c r="L10" s="52">
+        <v>1</v>
+      </c>
+      <c r="M10" s="50"/>
+    </row>
+    <row r="11" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A11" s="48">
         <v>9</v>
       </c>
@@ -2384,24 +2376,24 @@
       <c r="G11" s="49" t="s">
         <v>314</v>
       </c>
-      <c r="H11" s="35" t="s">
+      <c r="H11" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I11" s="35" t="s">
+      <c r="I11" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J11" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="35">
-        <v>1</v>
-      </c>
-      <c r="L11" s="51">
-        <v>1</v>
-      </c>
-      <c r="M11" s="35"/>
-    </row>
-    <row r="12" spans="1:13" ht="30" customHeight="1">
+      <c r="J11" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K11" s="50">
+        <v>1</v>
+      </c>
+      <c r="L11" s="52">
+        <v>1</v>
+      </c>
+      <c r="M11" s="50"/>
+    </row>
+    <row r="12" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A12" s="48">
         <v>10</v>
       </c>
@@ -2423,24 +2415,24 @@
       <c r="G12" s="49" t="s">
         <v>322</v>
       </c>
-      <c r="H12" s="35" t="s">
+      <c r="H12" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I12" s="35" t="s">
+      <c r="I12" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J12" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K12" s="35">
-        <v>1</v>
-      </c>
-      <c r="L12" s="51">
-        <v>1</v>
-      </c>
-      <c r="M12" s="35"/>
-    </row>
-    <row r="13" spans="1:13" ht="30" customHeight="1">
+      <c r="J12" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12" s="50">
+        <v>1</v>
+      </c>
+      <c r="L12" s="52">
+        <v>1</v>
+      </c>
+      <c r="M12" s="50"/>
+    </row>
+    <row r="13" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A13" s="48">
         <v>11</v>
       </c>
@@ -2462,24 +2454,24 @@
       <c r="G13" s="49" t="s">
         <v>323</v>
       </c>
-      <c r="H13" s="35" t="s">
+      <c r="H13" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I13" s="35" t="s">
+      <c r="I13" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J13" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K13" s="35">
-        <v>1</v>
-      </c>
-      <c r="L13" s="51">
-        <v>1</v>
-      </c>
-      <c r="M13" s="35"/>
-    </row>
-    <row r="14" spans="1:13" ht="30" customHeight="1">
+      <c r="J13" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K13" s="50">
+        <v>1</v>
+      </c>
+      <c r="L13" s="52">
+        <v>1</v>
+      </c>
+      <c r="M13" s="50"/>
+    </row>
+    <row r="14" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A14" s="48">
         <v>12</v>
       </c>
@@ -2501,24 +2493,24 @@
       <c r="G14" s="49" t="s">
         <v>324</v>
       </c>
-      <c r="H14" s="35" t="s">
+      <c r="H14" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I14" s="35" t="s">
+      <c r="I14" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K14" s="35">
-        <v>1</v>
-      </c>
-      <c r="L14" s="51">
-        <v>1</v>
-      </c>
-      <c r="M14" s="35"/>
-    </row>
-    <row r="15" spans="1:13" ht="30" customHeight="1">
+      <c r="J14" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K14" s="50">
+        <v>1</v>
+      </c>
+      <c r="L14" s="52">
+        <v>1</v>
+      </c>
+      <c r="M14" s="50"/>
+    </row>
+    <row r="15" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A15" s="48">
         <v>13</v>
       </c>
@@ -2540,24 +2532,24 @@
       <c r="G15" s="49" t="s">
         <v>325</v>
       </c>
-      <c r="H15" s="35" t="s">
+      <c r="H15" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I15" s="35" t="s">
+      <c r="I15" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K15" s="35">
-        <v>1</v>
-      </c>
-      <c r="L15" s="51">
-        <v>1</v>
-      </c>
-      <c r="M15" s="35"/>
-    </row>
-    <row r="16" spans="1:13" ht="30" customHeight="1">
+      <c r="J15" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K15" s="50">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52">
+        <v>1</v>
+      </c>
+      <c r="M15" s="50"/>
+    </row>
+    <row r="16" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A16" s="48">
         <v>14</v>
       </c>
@@ -2579,24 +2571,24 @@
       <c r="G16" s="49" t="s">
         <v>330</v>
       </c>
-      <c r="H16" s="35" t="s">
+      <c r="H16" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="35" t="s">
+      <c r="I16" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J16" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K16" s="35">
-        <v>1</v>
-      </c>
-      <c r="L16" s="51">
-        <v>1</v>
-      </c>
-      <c r="M16" s="35"/>
-    </row>
-    <row r="17" spans="1:13" ht="30" customHeight="1">
+      <c r="J16" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K16" s="50">
+        <v>1</v>
+      </c>
+      <c r="L16" s="52">
+        <v>1</v>
+      </c>
+      <c r="M16" s="50"/>
+    </row>
+    <row r="17" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A17" s="48">
         <v>15</v>
       </c>
@@ -2618,24 +2610,24 @@
       <c r="G17" s="49" t="s">
         <v>331</v>
       </c>
-      <c r="H17" s="35" t="s">
+      <c r="H17" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I17" s="35" t="s">
+      <c r="I17" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J17" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K17" s="35">
-        <v>1</v>
-      </c>
-      <c r="L17" s="51">
-        <v>1</v>
-      </c>
-      <c r="M17" s="35"/>
-    </row>
-    <row r="18" spans="1:13" ht="30" customHeight="1">
+      <c r="J17" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K17" s="50">
+        <v>1</v>
+      </c>
+      <c r="L17" s="52">
+        <v>1</v>
+      </c>
+      <c r="M17" s="50"/>
+    </row>
+    <row r="18" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A18" s="48">
         <v>16</v>
       </c>
@@ -2657,24 +2649,24 @@
       <c r="G18" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="H18" s="35" t="s">
+      <c r="H18" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I18" s="35" t="s">
+      <c r="I18" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J18" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K18" s="35">
-        <v>1</v>
-      </c>
-      <c r="L18" s="51">
-        <v>1</v>
-      </c>
-      <c r="M18" s="35"/>
-    </row>
-    <row r="19" spans="1:13" ht="30" customHeight="1">
+      <c r="J18" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="50">
+        <v>1</v>
+      </c>
+      <c r="L18" s="52">
+        <v>1</v>
+      </c>
+      <c r="M18" s="50"/>
+    </row>
+    <row r="19" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A19" s="48">
         <v>17</v>
       </c>
@@ -2696,24 +2688,24 @@
       <c r="G19" s="49" t="s">
         <v>333</v>
       </c>
-      <c r="H19" s="35" t="s">
+      <c r="H19" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I19" s="35" t="s">
+      <c r="I19" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J19" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K19" s="35">
-        <v>1</v>
-      </c>
-      <c r="L19" s="51">
-        <v>1</v>
-      </c>
-      <c r="M19" s="35"/>
-    </row>
-    <row r="20" spans="1:13" ht="30" customHeight="1">
+      <c r="J19" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="50">
+        <v>1</v>
+      </c>
+      <c r="L19" s="52">
+        <v>1</v>
+      </c>
+      <c r="M19" s="50"/>
+    </row>
+    <row r="20" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A20" s="48">
         <v>18</v>
       </c>
@@ -2735,24 +2727,24 @@
       <c r="G20" s="49" t="s">
         <v>334</v>
       </c>
-      <c r="H20" s="35" t="s">
+      <c r="H20" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I20" s="35" t="s">
+      <c r="I20" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J20" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K20" s="35">
-        <v>1</v>
-      </c>
-      <c r="L20" s="51">
-        <v>1</v>
-      </c>
-      <c r="M20" s="35"/>
-    </row>
-    <row r="21" spans="1:13" ht="30" customHeight="1">
+      <c r="J20" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K20" s="50">
+        <v>1</v>
+      </c>
+      <c r="L20" s="52">
+        <v>1</v>
+      </c>
+      <c r="M20" s="50"/>
+    </row>
+    <row r="21" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A21" s="48">
         <v>19</v>
       </c>
@@ -2774,24 +2766,24 @@
       <c r="G21" s="49" t="s">
         <v>335</v>
       </c>
-      <c r="H21" s="35" t="s">
+      <c r="H21" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I21" s="35" t="s">
+      <c r="I21" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J21" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="35">
-        <v>1</v>
-      </c>
-      <c r="L21" s="51">
-        <v>1</v>
-      </c>
-      <c r="M21" s="35"/>
-    </row>
-    <row r="22" spans="1:13" ht="30" customHeight="1">
+      <c r="J21" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="50">
+        <v>1</v>
+      </c>
+      <c r="L21" s="52">
+        <v>1</v>
+      </c>
+      <c r="M21" s="50"/>
+    </row>
+    <row r="22" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A22" s="48">
         <v>20</v>
       </c>
@@ -2804,7 +2796,7 @@
       <c r="D22" s="49" t="s">
         <v>309</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="49" t="s">
         <v>315</v>
       </c>
       <c r="F22" s="49" t="s">
@@ -2813,24 +2805,24 @@
       <c r="G22" s="49" t="s">
         <v>336</v>
       </c>
-      <c r="H22" s="35" t="s">
+      <c r="H22" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I22" s="35" t="s">
+      <c r="I22" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J22" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K22" s="35">
-        <v>1</v>
-      </c>
-      <c r="L22" s="51">
-        <v>1</v>
-      </c>
-      <c r="M22" s="35"/>
-    </row>
-    <row r="23" spans="1:13" ht="30" customHeight="1">
+      <c r="J22" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="50">
+        <v>1</v>
+      </c>
+      <c r="L22" s="52">
+        <v>1</v>
+      </c>
+      <c r="M22" s="50"/>
+    </row>
+    <row r="23" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A23" s="48">
         <v>21</v>
       </c>
@@ -2843,7 +2835,7 @@
       <c r="D23" s="49" t="s">
         <v>310</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="49" t="s">
         <v>316</v>
       </c>
       <c r="F23" s="49" t="s">
@@ -2852,24 +2844,24 @@
       <c r="G23" s="49" t="s">
         <v>337</v>
       </c>
-      <c r="H23" s="35" t="s">
+      <c r="H23" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I23" s="35" t="s">
+      <c r="I23" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J23" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K23" s="35">
-        <v>1</v>
-      </c>
-      <c r="L23" s="51">
-        <v>1</v>
-      </c>
-      <c r="M23" s="35"/>
-    </row>
-    <row r="24" spans="1:13" ht="30" customHeight="1">
+      <c r="J23" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K23" s="50">
+        <v>1</v>
+      </c>
+      <c r="L23" s="52">
+        <v>1</v>
+      </c>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A24" s="48">
         <v>22</v>
       </c>
@@ -2882,7 +2874,7 @@
       <c r="D24" s="49" t="s">
         <v>313</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="49" t="s">
         <v>317</v>
       </c>
       <c r="F24" s="49" t="s">
@@ -2891,24 +2883,24 @@
       <c r="G24" s="49" t="s">
         <v>338</v>
       </c>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I24" s="35" t="s">
+      <c r="I24" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J24" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K24" s="35">
-        <v>1</v>
-      </c>
-      <c r="L24" s="51">
-        <v>1</v>
-      </c>
-      <c r="M24" s="35"/>
-    </row>
-    <row r="25" spans="1:13" ht="30" customHeight="1">
+      <c r="J24" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K24" s="50">
+        <v>1</v>
+      </c>
+      <c r="L24" s="52">
+        <v>1</v>
+      </c>
+      <c r="M24" s="50"/>
+    </row>
+    <row r="25" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A25" s="48">
         <v>23</v>
       </c>
@@ -2921,7 +2913,7 @@
       <c r="D25" s="49" t="s">
         <v>318</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="49" t="s">
         <v>326</v>
       </c>
       <c r="F25" s="49" t="s">
@@ -2930,24 +2922,24 @@
       <c r="G25" s="49" t="s">
         <v>339</v>
       </c>
-      <c r="H25" s="35" t="s">
+      <c r="H25" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I25" s="35" t="s">
+      <c r="I25" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J25" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K25" s="35">
-        <v>1</v>
-      </c>
-      <c r="L25" s="51">
-        <v>1</v>
-      </c>
-      <c r="M25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" ht="30" customHeight="1">
+      <c r="J25" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K25" s="50">
+        <v>1</v>
+      </c>
+      <c r="L25" s="52">
+        <v>1</v>
+      </c>
+      <c r="M25" s="50"/>
+    </row>
+    <row r="26" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A26" s="48">
         <v>24</v>
       </c>
@@ -2969,24 +2961,24 @@
       <c r="G26" s="49" t="s">
         <v>340</v>
       </c>
-      <c r="H26" s="35" t="s">
+      <c r="H26" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I26" s="35" t="s">
+      <c r="I26" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J26" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K26" s="35">
-        <v>1</v>
-      </c>
-      <c r="L26" s="51">
-        <v>1</v>
-      </c>
-      <c r="M26" s="35"/>
-    </row>
-    <row r="27" spans="1:13" ht="30" customHeight="1">
+      <c r="J26" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K26" s="50">
+        <v>1</v>
+      </c>
+      <c r="L26" s="52">
+        <v>1</v>
+      </c>
+      <c r="M26" s="50"/>
+    </row>
+    <row r="27" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A27" s="48">
         <v>25</v>
       </c>
@@ -3008,24 +3000,24 @@
       <c r="G27" s="49" t="s">
         <v>341</v>
       </c>
-      <c r="H27" s="35" t="s">
+      <c r="H27" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I27" s="35" t="s">
+      <c r="I27" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J27" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K27" s="35">
-        <v>1</v>
-      </c>
-      <c r="L27" s="51">
-        <v>1</v>
-      </c>
-      <c r="M27" s="35"/>
-    </row>
-    <row r="28" spans="1:13" ht="30" customHeight="1">
+      <c r="J27" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K27" s="50">
+        <v>1</v>
+      </c>
+      <c r="L27" s="52">
+        <v>1</v>
+      </c>
+      <c r="M27" s="50"/>
+    </row>
+    <row r="28" spans="1:13" s="53" customFormat="1" ht="30" customHeight="1">
       <c r="A28" s="48">
         <v>26</v>
       </c>
@@ -3038,7 +3030,7 @@
       <c r="D28" s="49" t="s">
         <v>320</v>
       </c>
-      <c r="E28" s="58" t="s">
+      <c r="E28" s="49" t="s">
         <v>329</v>
       </c>
       <c r="F28" s="49" t="s">
@@ -3047,22 +3039,22 @@
       <c r="G28" s="49" t="s">
         <v>342</v>
       </c>
-      <c r="H28" s="35" t="s">
+      <c r="H28" s="50" t="s">
         <v>247</v>
       </c>
-      <c r="I28" s="35" t="s">
+      <c r="I28" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="J28" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="K28" s="35">
-        <v>1</v>
-      </c>
-      <c r="L28" s="51">
-        <v>1</v>
-      </c>
-      <c r="M28" s="35"/>
+      <c r="J28" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="K28" s="50">
+        <v>1</v>
+      </c>
+      <c r="L28" s="52">
+        <v>1</v>
+      </c>
+      <c r="M28" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:L28" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -3095,8 +3087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C49FAA04-E460-4C50-88BA-FFE3A62A878C}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3162,7 +3154,7 @@
       <c r="B2" s="44" t="s">
         <v>351</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="58" t="s">
         <v>353</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -3203,7 +3195,7 @@
       <c r="B3" s="44" t="s">
         <v>352</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="57" t="s">
         <v>349</v>
       </c>
       <c r="D3" s="45" t="s">
